--- a/biology/Zoologie/Dacnis_bleu/Dacnis_bleu.xlsx
+++ b/biology/Zoologie/Dacnis_bleu/Dacnis_bleu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dacnis cayana
 Le Dacnis bleu (Dacnis cayana) est une espèce de passereau de la famille des Thraupidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure en moyenne 12,7 cm de long et pèse 13 g. Le mâle adulte est bleu turquoise avec le tour des yeux, la gorge et le dos noir. Les ailes et la queue sont noires, mêlées de turquoise. La femelle et les immatures sont principalement verts avec une tête bleue, le ventre est vert pâle et les ailes brunes teintées de vert.
 Le cri est un mince tsip.
@@ -544,7 +558,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oiseaux sociables qui mangent principalement des insectes ramassés sur le feuillage, des fleurs ou des broméliacées. Ils consomment aussi des baies habituellement avalées en entier, mais rarement du nectar.
 </t>
@@ -575,7 +591,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nid volumineux en coupe est construit dans un arbre et la couvaison normale est de deux à trois œufs gris marbrés de blanc. La femelle couve les œufs, mais est nourrie par le mâle.
 </t>
@@ -606,7 +624,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit du Nicaragua au Panama, sur Trinidad et, en Amérique du Sud, dans le sud de la Bolivie et le nord de l'Argentine.
 </t>
@@ -637,7 +657,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est présent dans les forêts et autres terres boisées, y compris les parcs et les jardins. Il est très répandu et souvent commun, surtout dans certaines parties de son aire de répartition en Amérique du Sud.
 </t>
@@ -668,7 +690,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Cet oiseau est représenté par huit sous-espèces :
 Dacnis cayana baudoana Meyer de Schauensee 1946 ;
